--- a/ADBE.xlsx
+++ b/ADBE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4B04F8-77FB-4C89-B2AB-B506F848D6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747B3771-4F7E-455E-8345-32182468AAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{A2819952-F443-4856-A3B0-4932ED140538}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{A2819952-F443-4856-A3B0-4932ED140538}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -181,7 +181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,14 +190,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -211,6 +209,20 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -232,21 +244,21 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -585,33 +597,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA8B7AA3-060B-4A41-B542-B6B2590D69AB}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>407.92</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="3">
@@ -621,11 +634,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="3">
@@ -633,11 +646,11 @@
         <v>179566.38399999999</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="3">
@@ -648,8 +661,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F6" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="3">
@@ -660,8 +673,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F7" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="3">
@@ -678,25 +691,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD859FD4-8ECE-4440-9194-0DD68C8F4560}">
   <dimension ref="A1:XFD456"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L30" sqref="L30"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35 16384:16384" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35 16384:16384" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:35 16384:16384" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35 16384:16384" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
@@ -722,8 +736,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:35 16384:16384" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:35 16384:16384" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="3"/>
@@ -764,8 +778,8 @@
       <c r="AH3" s="3"/>
       <c r="AI3" s="3"/>
     </row>
-    <row r="4" spans="1:35 16384:16384" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:35 16384:16384" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="3"/>
@@ -806,8 +820,8 @@
       <c r="AH4" s="3"/>
       <c r="AI4" s="3"/>
     </row>
-    <row r="5" spans="1:35 16384:16384" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:35 16384:16384" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="3"/>
@@ -848,7 +862,7 @@
       <c r="AH5" s="3"/>
       <c r="AI5" s="3"/>
     </row>
-    <row r="6" spans="1:35 16384:16384" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35 16384:16384" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
@@ -910,8 +924,8 @@
       <c r="AH6" s="3"/>
       <c r="AI6" s="3"/>
     </row>
-    <row r="7" spans="1:35 16384:16384" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:35 16384:16384" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="3"/>
@@ -952,8 +966,8 @@
       <c r="AH7" s="3"/>
       <c r="AI7" s="3"/>
     </row>
-    <row r="8" spans="1:35 16384:16384" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:35 16384:16384" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="3"/>
@@ -994,8 +1008,8 @@
       <c r="AH8" s="3"/>
       <c r="AI8" s="3"/>
     </row>
-    <row r="9" spans="1:35 16384:16384" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:35 16384:16384" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="3"/>
@@ -1036,8 +1050,8 @@
       <c r="AH9" s="3"/>
       <c r="AI9" s="3"/>
     </row>
-    <row r="10" spans="1:35 16384:16384" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:35 16384:16384" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="3">
@@ -1098,8 +1112,8 @@
       <c r="AH10" s="3"/>
       <c r="AI10" s="3"/>
     </row>
-    <row r="11" spans="1:35 16384:16384" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:35 16384:16384" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="3"/>
@@ -1140,8 +1154,8 @@
       <c r="AH11" s="3"/>
       <c r="AI11" s="3"/>
     </row>
-    <row r="12" spans="1:35 16384:16384" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:35 16384:16384" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="3"/>
@@ -1182,8 +1196,8 @@
       <c r="AH12" s="3"/>
       <c r="AI12" s="3"/>
     </row>
-    <row r="13" spans="1:35 16384:16384" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:35 16384:16384" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="3"/>
@@ -1224,8 +1238,8 @@
       <c r="AH13" s="3"/>
       <c r="AI13" s="3"/>
     </row>
-    <row r="14" spans="1:35 16384:16384" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:35 16384:16384" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="3"/>
@@ -1266,8 +1280,8 @@
       <c r="AH14" s="3"/>
       <c r="AI14" s="3"/>
     </row>
-    <row r="15" spans="1:35 16384:16384" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:35 16384:16384" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="3">
@@ -1329,8 +1343,8 @@
       <c r="AI15" s="3"/>
       <c r="XFD15" s="3"/>
     </row>
-    <row r="16" spans="1:35 16384:16384" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:35 16384:16384" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="3"/>
@@ -1371,8 +1385,8 @@
       <c r="AH16" s="3"/>
       <c r="AI16" s="3"/>
     </row>
-    <row r="17" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="3"/>
@@ -1413,8 +1427,8 @@
       <c r="AH17" s="3"/>
       <c r="AI17" s="3"/>
     </row>
-    <row r="18" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="3"/>
@@ -1455,8 +1469,8 @@
       <c r="AH18" s="3"/>
       <c r="AI18" s="3"/>
     </row>
-    <row r="19" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="3">
@@ -1517,8 +1531,8 @@
       <c r="AH19" s="3"/>
       <c r="AI19" s="3"/>
     </row>
-    <row r="20" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="3"/>
@@ -1559,8 +1573,8 @@
       <c r="AH20" s="3"/>
       <c r="AI20" s="3"/>
     </row>
-    <row r="21" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="3">
@@ -1621,7 +1635,7 @@
       <c r="AH21" s="3"/>
       <c r="AI21" s="3"/>
     </row>
-    <row r="22" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:35" x14ac:dyDescent="0.2">
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1656,39 +1670,39 @@
       <c r="AH22" s="3"/>
       <c r="AI22" s="3"/>
     </row>
-    <row r="23" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="2" t="e">
+      <c r="C23" s="7" t="e">
         <f t="shared" ref="C23:H23" si="10">+C21/C24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D23" s="2" t="e">
+      <c r="D23" s="7" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="7">
         <f t="shared" si="10"/>
         <v>3.0767543859649122</v>
       </c>
-      <c r="F23" s="2" t="e">
+      <c r="F23" s="7" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G23" s="2" t="e">
+      <c r="G23" s="7" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="2" t="e">
+      <c r="H23" s="7" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="7">
         <f>+I21/I24</f>
         <v>3.7842696629213481</v>
       </c>
-      <c r="J23" s="2" t="e">
+      <c r="J23" s="7" t="e">
         <f t="shared" ref="J23" si="11">+J21/J24</f>
         <v>#DIV/0!</v>
       </c>
@@ -1718,8 +1732,8 @@
       <c r="AH23" s="3"/>
       <c r="AI23" s="3"/>
     </row>
-    <row r="24" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="3"/>
@@ -1760,7 +1774,7 @@
       <c r="AH24" s="3"/>
       <c r="AI24" s="3"/>
     </row>
-    <row r="25" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:35" x14ac:dyDescent="0.2">
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1795,8 +1809,8 @@
       <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
     </row>
-    <row r="26" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C26" s="3"/>
@@ -1845,8 +1859,8 @@
       <c r="AH26" s="3"/>
       <c r="AI26" s="3"/>
     </row>
-    <row r="27" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="3"/>
@@ -1895,8 +1909,8 @@
       <c r="AH27" s="3"/>
       <c r="AI27" s="3"/>
     </row>
-    <row r="28" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C28" s="3"/>
@@ -1945,8 +1959,8 @@
       <c r="AH28" s="3"/>
       <c r="AI28" s="3"/>
     </row>
-    <row r="29" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B29" s="7" t="s">
+    <row r="29" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C29" s="3"/>
@@ -1995,12 +2009,12 @@
       <c r="AH29" s="3"/>
       <c r="AI29" s="3"/>
     </row>
-    <row r="30" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B30" s="7" t="s">
+    <row r="30" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C30" s="8" t="e">
-        <f t="shared" ref="C30:J30" si="15">+C10/C6</f>
+        <f t="shared" ref="C30:H30" si="15">+C10/C6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D30" s="8" t="e">
@@ -2057,12 +2071,12 @@
       <c r="AH30" s="3"/>
       <c r="AI30" s="3"/>
     </row>
-    <row r="31" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B31" s="7" t="s">
+    <row r="31" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C31" s="8" t="e">
-        <f t="shared" ref="C31:J31" si="17">+C15/C6</f>
+        <f t="shared" ref="C31:H31" si="17">+C15/C6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D31" s="8" t="e">
@@ -2119,12 +2133,12 @@
       <c r="AH31" s="3"/>
       <c r="AI31" s="3"/>
     </row>
-    <row r="32" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B32" s="7" t="s">
+    <row r="32" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C32" s="8" t="e">
-        <f t="shared" ref="C32:J32" si="19">+C20/C19</f>
+        <f t="shared" ref="C32:H32" si="19">+C20/C19</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D32" s="8" t="e">
@@ -2181,7 +2195,7 @@
       <c r="AH32" s="3"/>
       <c r="AI32" s="3"/>
     </row>
-    <row r="33" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -2216,7 +2230,7 @@
       <c r="AH33" s="3"/>
       <c r="AI33" s="3"/>
     </row>
-    <row r="34" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -2251,7 +2265,7 @@
       <c r="AH34" s="3"/>
       <c r="AI34" s="3"/>
     </row>
-    <row r="35" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -2286,7 +2300,7 @@
       <c r="AH35" s="3"/>
       <c r="AI35" s="3"/>
     </row>
-    <row r="36" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -2321,7 +2335,7 @@
       <c r="AH36" s="3"/>
       <c r="AI36" s="3"/>
     </row>
-    <row r="37" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -2356,7 +2370,7 @@
       <c r="AH37" s="3"/>
       <c r="AI37" s="3"/>
     </row>
-    <row r="38" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -2391,7 +2405,7 @@
       <c r="AH38" s="3"/>
       <c r="AI38" s="3"/>
     </row>
-    <row r="39" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -2426,7 +2440,7 @@
       <c r="AH39" s="3"/>
       <c r="AI39" s="3"/>
     </row>
-    <row r="40" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -2461,7 +2475,7 @@
       <c r="AH40" s="3"/>
       <c r="AI40" s="3"/>
     </row>
-    <row r="41" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -2496,7 +2510,7 @@
       <c r="AH41" s="3"/>
       <c r="AI41" s="3"/>
     </row>
-    <row r="42" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -2531,7 +2545,7 @@
       <c r="AH42" s="3"/>
       <c r="AI42" s="3"/>
     </row>
-    <row r="43" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -2566,7 +2580,7 @@
       <c r="AH43" s="3"/>
       <c r="AI43" s="3"/>
     </row>
-    <row r="44" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -2601,7 +2615,7 @@
       <c r="AH44" s="3"/>
       <c r="AI44" s="3"/>
     </row>
-    <row r="45" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -2636,7 +2650,7 @@
       <c r="AH45" s="3"/>
       <c r="AI45" s="3"/>
     </row>
-    <row r="46" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -2671,7 +2685,7 @@
       <c r="AH46" s="3"/>
       <c r="AI46" s="3"/>
     </row>
-    <row r="47" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -2706,7 +2720,7 @@
       <c r="AH47" s="3"/>
       <c r="AI47" s="3"/>
     </row>
-    <row r="48" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -2741,7 +2755,7 @@
       <c r="AH48" s="3"/>
       <c r="AI48" s="3"/>
     </row>
-    <row r="49" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -2776,7 +2790,7 @@
       <c r="AH49" s="3"/>
       <c r="AI49" s="3"/>
     </row>
-    <row r="50" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -2811,7 +2825,7 @@
       <c r="AH50" s="3"/>
       <c r="AI50" s="3"/>
     </row>
-    <row r="51" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -2846,7 +2860,7 @@
       <c r="AH51" s="3"/>
       <c r="AI51" s="3"/>
     </row>
-    <row r="52" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -2881,7 +2895,7 @@
       <c r="AH52" s="3"/>
       <c r="AI52" s="3"/>
     </row>
-    <row r="53" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -2916,7 +2930,7 @@
       <c r="AH53" s="3"/>
       <c r="AI53" s="3"/>
     </row>
-    <row r="54" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -2951,7 +2965,7 @@
       <c r="AH54" s="3"/>
       <c r="AI54" s="3"/>
     </row>
-    <row r="55" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -2986,7 +3000,7 @@
       <c r="AH55" s="3"/>
       <c r="AI55" s="3"/>
     </row>
-    <row r="56" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -3021,7 +3035,7 @@
       <c r="AH56" s="3"/>
       <c r="AI56" s="3"/>
     </row>
-    <row r="57" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -3056,7 +3070,7 @@
       <c r="AH57" s="3"/>
       <c r="AI57" s="3"/>
     </row>
-    <row r="58" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -3091,7 +3105,7 @@
       <c r="AH58" s="3"/>
       <c r="AI58" s="3"/>
     </row>
-    <row r="59" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -3126,7 +3140,7 @@
       <c r="AH59" s="3"/>
       <c r="AI59" s="3"/>
     </row>
-    <row r="60" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -3161,7 +3175,7 @@
       <c r="AH60" s="3"/>
       <c r="AI60" s="3"/>
     </row>
-    <row r="61" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -3196,7 +3210,7 @@
       <c r="AH61" s="3"/>
       <c r="AI61" s="3"/>
     </row>
-    <row r="62" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -3231,7 +3245,7 @@
       <c r="AH62" s="3"/>
       <c r="AI62" s="3"/>
     </row>
-    <row r="63" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -3266,7 +3280,7 @@
       <c r="AH63" s="3"/>
       <c r="AI63" s="3"/>
     </row>
-    <row r="64" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -3301,7 +3315,7 @@
       <c r="AH64" s="3"/>
       <c r="AI64" s="3"/>
     </row>
-    <row r="65" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -3336,7 +3350,7 @@
       <c r="AH65" s="3"/>
       <c r="AI65" s="3"/>
     </row>
-    <row r="66" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -3371,7 +3385,7 @@
       <c r="AH66" s="3"/>
       <c r="AI66" s="3"/>
     </row>
-    <row r="67" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -3406,7 +3420,7 @@
       <c r="AH67" s="3"/>
       <c r="AI67" s="3"/>
     </row>
-    <row r="68" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -3441,7 +3455,7 @@
       <c r="AH68" s="3"/>
       <c r="AI68" s="3"/>
     </row>
-    <row r="69" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -3476,7 +3490,7 @@
       <c r="AH69" s="3"/>
       <c r="AI69" s="3"/>
     </row>
-    <row r="70" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -3511,7 +3525,7 @@
       <c r="AH70" s="3"/>
       <c r="AI70" s="3"/>
     </row>
-    <row r="71" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -3546,7 +3560,7 @@
       <c r="AH71" s="3"/>
       <c r="AI71" s="3"/>
     </row>
-    <row r="72" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -3581,7 +3595,7 @@
       <c r="AH72" s="3"/>
       <c r="AI72" s="3"/>
     </row>
-    <row r="73" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -3616,7 +3630,7 @@
       <c r="AH73" s="3"/>
       <c r="AI73" s="3"/>
     </row>
-    <row r="74" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -3651,7 +3665,7 @@
       <c r="AH74" s="3"/>
       <c r="AI74" s="3"/>
     </row>
-    <row r="75" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -3686,7 +3700,7 @@
       <c r="AH75" s="3"/>
       <c r="AI75" s="3"/>
     </row>
-    <row r="76" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -3721,7 +3735,7 @@
       <c r="AH76" s="3"/>
       <c r="AI76" s="3"/>
     </row>
-    <row r="77" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -3756,7 +3770,7 @@
       <c r="AH77" s="3"/>
       <c r="AI77" s="3"/>
     </row>
-    <row r="78" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -3791,7 +3805,7 @@
       <c r="AH78" s="3"/>
       <c r="AI78" s="3"/>
     </row>
-    <row r="79" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -3826,7 +3840,7 @@
       <c r="AH79" s="3"/>
       <c r="AI79" s="3"/>
     </row>
-    <row r="80" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -3861,7 +3875,7 @@
       <c r="AH80" s="3"/>
       <c r="AI80" s="3"/>
     </row>
-    <row r="81" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -3896,7 +3910,7 @@
       <c r="AH81" s="3"/>
       <c r="AI81" s="3"/>
     </row>
-    <row r="82" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -3931,7 +3945,7 @@
       <c r="AH82" s="3"/>
       <c r="AI82" s="3"/>
     </row>
-    <row r="83" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -3966,7 +3980,7 @@
       <c r="AH83" s="3"/>
       <c r="AI83" s="3"/>
     </row>
-    <row r="84" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -4001,7 +4015,7 @@
       <c r="AH84" s="3"/>
       <c r="AI84" s="3"/>
     </row>
-    <row r="85" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -4036,7 +4050,7 @@
       <c r="AH85" s="3"/>
       <c r="AI85" s="3"/>
     </row>
-    <row r="86" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -4071,7 +4085,7 @@
       <c r="AH86" s="3"/>
       <c r="AI86" s="3"/>
     </row>
-    <row r="87" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -4106,7 +4120,7 @@
       <c r="AH87" s="3"/>
       <c r="AI87" s="3"/>
     </row>
-    <row r="88" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -4141,7 +4155,7 @@
       <c r="AH88" s="3"/>
       <c r="AI88" s="3"/>
     </row>
-    <row r="89" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -4176,7 +4190,7 @@
       <c r="AH89" s="3"/>
       <c r="AI89" s="3"/>
     </row>
-    <row r="90" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -4211,7 +4225,7 @@
       <c r="AH90" s="3"/>
       <c r="AI90" s="3"/>
     </row>
-    <row r="91" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -4246,7 +4260,7 @@
       <c r="AH91" s="3"/>
       <c r="AI91" s="3"/>
     </row>
-    <row r="92" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -4281,7 +4295,7 @@
       <c r="AH92" s="3"/>
       <c r="AI92" s="3"/>
     </row>
-    <row r="93" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -4316,7 +4330,7 @@
       <c r="AH93" s="3"/>
       <c r="AI93" s="3"/>
     </row>
-    <row r="94" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -4351,7 +4365,7 @@
       <c r="AH94" s="3"/>
       <c r="AI94" s="3"/>
     </row>
-    <row r="95" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -4386,7 +4400,7 @@
       <c r="AH95" s="3"/>
       <c r="AI95" s="3"/>
     </row>
-    <row r="96" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -4421,7 +4435,7 @@
       <c r="AH96" s="3"/>
       <c r="AI96" s="3"/>
     </row>
-    <row r="97" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -4456,7 +4470,7 @@
       <c r="AH97" s="3"/>
       <c r="AI97" s="3"/>
     </row>
-    <row r="98" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -4491,7 +4505,7 @@
       <c r="AH98" s="3"/>
       <c r="AI98" s="3"/>
     </row>
-    <row r="99" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -4526,7 +4540,7 @@
       <c r="AH99" s="3"/>
       <c r="AI99" s="3"/>
     </row>
-    <row r="100" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -4561,7 +4575,7 @@
       <c r="AH100" s="3"/>
       <c r="AI100" s="3"/>
     </row>
-    <row r="101" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -4596,7 +4610,7 @@
       <c r="AH101" s="3"/>
       <c r="AI101" s="3"/>
     </row>
-    <row r="102" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -4631,7 +4645,7 @@
       <c r="AH102" s="3"/>
       <c r="AI102" s="3"/>
     </row>
-    <row r="103" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -4666,7 +4680,7 @@
       <c r="AH103" s="3"/>
       <c r="AI103" s="3"/>
     </row>
-    <row r="104" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -4701,7 +4715,7 @@
       <c r="AH104" s="3"/>
       <c r="AI104" s="3"/>
     </row>
-    <row r="105" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -4736,7 +4750,7 @@
       <c r="AH105" s="3"/>
       <c r="AI105" s="3"/>
     </row>
-    <row r="106" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -4771,7 +4785,7 @@
       <c r="AH106" s="3"/>
       <c r="AI106" s="3"/>
     </row>
-    <row r="107" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -4806,7 +4820,7 @@
       <c r="AH107" s="3"/>
       <c r="AI107" s="3"/>
     </row>
-    <row r="108" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -4841,7 +4855,7 @@
       <c r="AH108" s="3"/>
       <c r="AI108" s="3"/>
     </row>
-    <row r="109" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -4876,7 +4890,7 @@
       <c r="AH109" s="3"/>
       <c r="AI109" s="3"/>
     </row>
-    <row r="110" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -4911,7 +4925,7 @@
       <c r="AH110" s="3"/>
       <c r="AI110" s="3"/>
     </row>
-    <row r="111" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -4946,7 +4960,7 @@
       <c r="AH111" s="3"/>
       <c r="AI111" s="3"/>
     </row>
-    <row r="112" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -4981,7 +4995,7 @@
       <c r="AH112" s="3"/>
       <c r="AI112" s="3"/>
     </row>
-    <row r="113" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -5016,7 +5030,7 @@
       <c r="AH113" s="3"/>
       <c r="AI113" s="3"/>
     </row>
-    <row r="114" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -5051,7 +5065,7 @@
       <c r="AH114" s="3"/>
       <c r="AI114" s="3"/>
     </row>
-    <row r="115" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -5086,7 +5100,7 @@
       <c r="AH115" s="3"/>
       <c r="AI115" s="3"/>
     </row>
-    <row r="116" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -5121,7 +5135,7 @@
       <c r="AH116" s="3"/>
       <c r="AI116" s="3"/>
     </row>
-    <row r="117" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -5156,7 +5170,7 @@
       <c r="AH117" s="3"/>
       <c r="AI117" s="3"/>
     </row>
-    <row r="118" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -5191,7 +5205,7 @@
       <c r="AH118" s="3"/>
       <c r="AI118" s="3"/>
     </row>
-    <row r="119" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -5226,7 +5240,7 @@
       <c r="AH119" s="3"/>
       <c r="AI119" s="3"/>
     </row>
-    <row r="120" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -5261,7 +5275,7 @@
       <c r="AH120" s="3"/>
       <c r="AI120" s="3"/>
     </row>
-    <row r="121" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -5296,7 +5310,7 @@
       <c r="AH121" s="3"/>
       <c r="AI121" s="3"/>
     </row>
-    <row r="122" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -5331,7 +5345,7 @@
       <c r="AH122" s="3"/>
       <c r="AI122" s="3"/>
     </row>
-    <row r="123" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -5366,7 +5380,7 @@
       <c r="AH123" s="3"/>
       <c r="AI123" s="3"/>
     </row>
-    <row r="124" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -5401,7 +5415,7 @@
       <c r="AH124" s="3"/>
       <c r="AI124" s="3"/>
     </row>
-    <row r="125" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -5436,7 +5450,7 @@
       <c r="AH125" s="3"/>
       <c r="AI125" s="3"/>
     </row>
-    <row r="126" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -5471,7 +5485,7 @@
       <c r="AH126" s="3"/>
       <c r="AI126" s="3"/>
     </row>
-    <row r="127" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -5506,7 +5520,7 @@
       <c r="AH127" s="3"/>
       <c r="AI127" s="3"/>
     </row>
-    <row r="128" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -5541,7 +5555,7 @@
       <c r="AH128" s="3"/>
       <c r="AI128" s="3"/>
     </row>
-    <row r="129" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -5576,7 +5590,7 @@
       <c r="AH129" s="3"/>
       <c r="AI129" s="3"/>
     </row>
-    <row r="130" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -5611,7 +5625,7 @@
       <c r="AH130" s="3"/>
       <c r="AI130" s="3"/>
     </row>
-    <row r="131" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -5646,7 +5660,7 @@
       <c r="AH131" s="3"/>
       <c r="AI131" s="3"/>
     </row>
-    <row r="132" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -5681,7 +5695,7 @@
       <c r="AH132" s="3"/>
       <c r="AI132" s="3"/>
     </row>
-    <row r="133" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -5716,7 +5730,7 @@
       <c r="AH133" s="3"/>
       <c r="AI133" s="3"/>
     </row>
-    <row r="134" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -5751,7 +5765,7 @@
       <c r="AH134" s="3"/>
       <c r="AI134" s="3"/>
     </row>
-    <row r="135" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -5786,7 +5800,7 @@
       <c r="AH135" s="3"/>
       <c r="AI135" s="3"/>
     </row>
-    <row r="136" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -5821,7 +5835,7 @@
       <c r="AH136" s="3"/>
       <c r="AI136" s="3"/>
     </row>
-    <row r="137" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -5856,7 +5870,7 @@
       <c r="AH137" s="3"/>
       <c r="AI137" s="3"/>
     </row>
-    <row r="138" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -5891,7 +5905,7 @@
       <c r="AH138" s="3"/>
       <c r="AI138" s="3"/>
     </row>
-    <row r="139" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -5926,7 +5940,7 @@
       <c r="AH139" s="3"/>
       <c r="AI139" s="3"/>
     </row>
-    <row r="140" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -5961,7 +5975,7 @@
       <c r="AH140" s="3"/>
       <c r="AI140" s="3"/>
     </row>
-    <row r="141" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -5996,7 +6010,7 @@
       <c r="AH141" s="3"/>
       <c r="AI141" s="3"/>
     </row>
-    <row r="142" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -6031,7 +6045,7 @@
       <c r="AH142" s="3"/>
       <c r="AI142" s="3"/>
     </row>
-    <row r="143" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -6066,7 +6080,7 @@
       <c r="AH143" s="3"/>
       <c r="AI143" s="3"/>
     </row>
-    <row r="144" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -6101,7 +6115,7 @@
       <c r="AH144" s="3"/>
       <c r="AI144" s="3"/>
     </row>
-    <row r="145" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -6136,7 +6150,7 @@
       <c r="AH145" s="3"/>
       <c r="AI145" s="3"/>
     </row>
-    <row r="146" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -6171,7 +6185,7 @@
       <c r="AH146" s="3"/>
       <c r="AI146" s="3"/>
     </row>
-    <row r="147" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -6206,7 +6220,7 @@
       <c r="AH147" s="3"/>
       <c r="AI147" s="3"/>
     </row>
-    <row r="148" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -6241,7 +6255,7 @@
       <c r="AH148" s="3"/>
       <c r="AI148" s="3"/>
     </row>
-    <row r="149" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -6276,7 +6290,7 @@
       <c r="AH149" s="3"/>
       <c r="AI149" s="3"/>
     </row>
-    <row r="150" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -6311,7 +6325,7 @@
       <c r="AH150" s="3"/>
       <c r="AI150" s="3"/>
     </row>
-    <row r="151" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -6346,7 +6360,7 @@
       <c r="AH151" s="3"/>
       <c r="AI151" s="3"/>
     </row>
-    <row r="152" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -6381,7 +6395,7 @@
       <c r="AH152" s="3"/>
       <c r="AI152" s="3"/>
     </row>
-    <row r="153" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -6416,7 +6430,7 @@
       <c r="AH153" s="3"/>
       <c r="AI153" s="3"/>
     </row>
-    <row r="154" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -6451,7 +6465,7 @@
       <c r="AH154" s="3"/>
       <c r="AI154" s="3"/>
     </row>
-    <row r="155" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -6486,7 +6500,7 @@
       <c r="AH155" s="3"/>
       <c r="AI155" s="3"/>
     </row>
-    <row r="156" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -6521,7 +6535,7 @@
       <c r="AH156" s="3"/>
       <c r="AI156" s="3"/>
     </row>
-    <row r="157" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -6556,7 +6570,7 @@
       <c r="AH157" s="3"/>
       <c r="AI157" s="3"/>
     </row>
-    <row r="158" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -6591,7 +6605,7 @@
       <c r="AH158" s="3"/>
       <c r="AI158" s="3"/>
     </row>
-    <row r="159" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -6626,7 +6640,7 @@
       <c r="AH159" s="3"/>
       <c r="AI159" s="3"/>
     </row>
-    <row r="160" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -6661,7 +6675,7 @@
       <c r="AH160" s="3"/>
       <c r="AI160" s="3"/>
     </row>
-    <row r="161" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -6696,7 +6710,7 @@
       <c r="AH161" s="3"/>
       <c r="AI161" s="3"/>
     </row>
-    <row r="162" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -6731,7 +6745,7 @@
       <c r="AH162" s="3"/>
       <c r="AI162" s="3"/>
     </row>
-    <row r="163" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -6766,7 +6780,7 @@
       <c r="AH163" s="3"/>
       <c r="AI163" s="3"/>
     </row>
-    <row r="164" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -6801,7 +6815,7 @@
       <c r="AH164" s="3"/>
       <c r="AI164" s="3"/>
     </row>
-    <row r="165" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -6836,7 +6850,7 @@
       <c r="AH165" s="3"/>
       <c r="AI165" s="3"/>
     </row>
-    <row r="166" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -6871,7 +6885,7 @@
       <c r="AH166" s="3"/>
       <c r="AI166" s="3"/>
     </row>
-    <row r="167" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -6906,7 +6920,7 @@
       <c r="AH167" s="3"/>
       <c r="AI167" s="3"/>
     </row>
-    <row r="168" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -6941,7 +6955,7 @@
       <c r="AH168" s="3"/>
       <c r="AI168" s="3"/>
     </row>
-    <row r="169" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -6976,7 +6990,7 @@
       <c r="AH169" s="3"/>
       <c r="AI169" s="3"/>
     </row>
-    <row r="170" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -7011,7 +7025,7 @@
       <c r="AH170" s="3"/>
       <c r="AI170" s="3"/>
     </row>
-    <row r="171" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -7046,7 +7060,7 @@
       <c r="AH171" s="3"/>
       <c r="AI171" s="3"/>
     </row>
-    <row r="172" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -7081,7 +7095,7 @@
       <c r="AH172" s="3"/>
       <c r="AI172" s="3"/>
     </row>
-    <row r="173" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -7116,7 +7130,7 @@
       <c r="AH173" s="3"/>
       <c r="AI173" s="3"/>
     </row>
-    <row r="174" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -7151,7 +7165,7 @@
       <c r="AH174" s="3"/>
       <c r="AI174" s="3"/>
     </row>
-    <row r="175" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -7186,7 +7200,7 @@
       <c r="AH175" s="3"/>
       <c r="AI175" s="3"/>
     </row>
-    <row r="176" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -7221,7 +7235,7 @@
       <c r="AH176" s="3"/>
       <c r="AI176" s="3"/>
     </row>
-    <row r="177" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -7256,7 +7270,7 @@
       <c r="AH177" s="3"/>
       <c r="AI177" s="3"/>
     </row>
-    <row r="178" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -7291,7 +7305,7 @@
       <c r="AH178" s="3"/>
       <c r="AI178" s="3"/>
     </row>
-    <row r="179" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -7326,7 +7340,7 @@
       <c r="AH179" s="3"/>
       <c r="AI179" s="3"/>
     </row>
-    <row r="180" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -7361,7 +7375,7 @@
       <c r="AH180" s="3"/>
       <c r="AI180" s="3"/>
     </row>
-    <row r="181" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -7396,7 +7410,7 @@
       <c r="AH181" s="3"/>
       <c r="AI181" s="3"/>
     </row>
-    <row r="182" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -7431,7 +7445,7 @@
       <c r="AH182" s="3"/>
       <c r="AI182" s="3"/>
     </row>
-    <row r="183" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -7466,7 +7480,7 @@
       <c r="AH183" s="3"/>
       <c r="AI183" s="3"/>
     </row>
-    <row r="184" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -7501,7 +7515,7 @@
       <c r="AH184" s="3"/>
       <c r="AI184" s="3"/>
     </row>
-    <row r="185" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -7536,7 +7550,7 @@
       <c r="AH185" s="3"/>
       <c r="AI185" s="3"/>
     </row>
-    <row r="186" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -7571,7 +7585,7 @@
       <c r="AH186" s="3"/>
       <c r="AI186" s="3"/>
     </row>
-    <row r="187" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -7606,7 +7620,7 @@
       <c r="AH187" s="3"/>
       <c r="AI187" s="3"/>
     </row>
-    <row r="188" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -7641,7 +7655,7 @@
       <c r="AH188" s="3"/>
       <c r="AI188" s="3"/>
     </row>
-    <row r="189" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -7676,7 +7690,7 @@
       <c r="AH189" s="3"/>
       <c r="AI189" s="3"/>
     </row>
-    <row r="190" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -7711,7 +7725,7 @@
       <c r="AH190" s="3"/>
       <c r="AI190" s="3"/>
     </row>
-    <row r="191" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -7746,7 +7760,7 @@
       <c r="AH191" s="3"/>
       <c r="AI191" s="3"/>
     </row>
-    <row r="192" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -7781,7 +7795,7 @@
       <c r="AH192" s="3"/>
       <c r="AI192" s="3"/>
     </row>
-    <row r="193" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -7816,7 +7830,7 @@
       <c r="AH193" s="3"/>
       <c r="AI193" s="3"/>
     </row>
-    <row r="194" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -7851,7 +7865,7 @@
       <c r="AH194" s="3"/>
       <c r="AI194" s="3"/>
     </row>
-    <row r="195" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -7886,7 +7900,7 @@
       <c r="AH195" s="3"/>
       <c r="AI195" s="3"/>
     </row>
-    <row r="196" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -7921,7 +7935,7 @@
       <c r="AH196" s="3"/>
       <c r="AI196" s="3"/>
     </row>
-    <row r="197" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -7956,7 +7970,7 @@
       <c r="AH197" s="3"/>
       <c r="AI197" s="3"/>
     </row>
-    <row r="198" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -7991,7 +8005,7 @@
       <c r="AH198" s="3"/>
       <c r="AI198" s="3"/>
     </row>
-    <row r="199" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -8026,7 +8040,7 @@
       <c r="AH199" s="3"/>
       <c r="AI199" s="3"/>
     </row>
-    <row r="200" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -8061,7 +8075,7 @@
       <c r="AH200" s="3"/>
       <c r="AI200" s="3"/>
     </row>
-    <row r="201" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -8096,7 +8110,7 @@
       <c r="AH201" s="3"/>
       <c r="AI201" s="3"/>
     </row>
-    <row r="202" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -8131,7 +8145,7 @@
       <c r="AH202" s="3"/>
       <c r="AI202" s="3"/>
     </row>
-    <row r="203" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -8166,7 +8180,7 @@
       <c r="AH203" s="3"/>
       <c r="AI203" s="3"/>
     </row>
-    <row r="204" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -8201,7 +8215,7 @@
       <c r="AH204" s="3"/>
       <c r="AI204" s="3"/>
     </row>
-    <row r="205" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -8236,7 +8250,7 @@
       <c r="AH205" s="3"/>
       <c r="AI205" s="3"/>
     </row>
-    <row r="206" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -8271,7 +8285,7 @@
       <c r="AH206" s="3"/>
       <c r="AI206" s="3"/>
     </row>
-    <row r="207" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -8306,7 +8320,7 @@
       <c r="AH207" s="3"/>
       <c r="AI207" s="3"/>
     </row>
-    <row r="208" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -8341,7 +8355,7 @@
       <c r="AH208" s="3"/>
       <c r="AI208" s="3"/>
     </row>
-    <row r="209" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -8376,7 +8390,7 @@
       <c r="AH209" s="3"/>
       <c r="AI209" s="3"/>
     </row>
-    <row r="210" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -8411,7 +8425,7 @@
       <c r="AH210" s="3"/>
       <c r="AI210" s="3"/>
     </row>
-    <row r="211" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -8446,7 +8460,7 @@
       <c r="AH211" s="3"/>
       <c r="AI211" s="3"/>
     </row>
-    <row r="212" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -8481,7 +8495,7 @@
       <c r="AH212" s="3"/>
       <c r="AI212" s="3"/>
     </row>
-    <row r="213" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -8516,7 +8530,7 @@
       <c r="AH213" s="3"/>
       <c r="AI213" s="3"/>
     </row>
-    <row r="214" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -8551,7 +8565,7 @@
       <c r="AH214" s="3"/>
       <c r="AI214" s="3"/>
     </row>
-    <row r="215" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -8586,7 +8600,7 @@
       <c r="AH215" s="3"/>
       <c r="AI215" s="3"/>
     </row>
-    <row r="216" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -8621,7 +8635,7 @@
       <c r="AH216" s="3"/>
       <c r="AI216" s="3"/>
     </row>
-    <row r="217" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -8656,7 +8670,7 @@
       <c r="AH217" s="3"/>
       <c r="AI217" s="3"/>
     </row>
-    <row r="218" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -8691,7 +8705,7 @@
       <c r="AH218" s="3"/>
       <c r="AI218" s="3"/>
     </row>
-    <row r="219" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -8726,7 +8740,7 @@
       <c r="AH219" s="3"/>
       <c r="AI219" s="3"/>
     </row>
-    <row r="220" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -8761,7 +8775,7 @@
       <c r="AH220" s="3"/>
       <c r="AI220" s="3"/>
     </row>
-    <row r="221" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -8796,7 +8810,7 @@
       <c r="AH221" s="3"/>
       <c r="AI221" s="3"/>
     </row>
-    <row r="222" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -8831,7 +8845,7 @@
       <c r="AH222" s="3"/>
       <c r="AI222" s="3"/>
     </row>
-    <row r="223" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -8866,7 +8880,7 @@
       <c r="AH223" s="3"/>
       <c r="AI223" s="3"/>
     </row>
-    <row r="224" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -8901,7 +8915,7 @@
       <c r="AH224" s="3"/>
       <c r="AI224" s="3"/>
     </row>
-    <row r="225" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -8936,7 +8950,7 @@
       <c r="AH225" s="3"/>
       <c r="AI225" s="3"/>
     </row>
-    <row r="226" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
@@ -8971,7 +8985,7 @@
       <c r="AH226" s="3"/>
       <c r="AI226" s="3"/>
     </row>
-    <row r="227" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -9006,7 +9020,7 @@
       <c r="AH227" s="3"/>
       <c r="AI227" s="3"/>
     </row>
-    <row r="228" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -9041,7 +9055,7 @@
       <c r="AH228" s="3"/>
       <c r="AI228" s="3"/>
     </row>
-    <row r="229" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -9076,7 +9090,7 @@
       <c r="AH229" s="3"/>
       <c r="AI229" s="3"/>
     </row>
-    <row r="230" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -9111,7 +9125,7 @@
       <c r="AH230" s="3"/>
       <c r="AI230" s="3"/>
     </row>
-    <row r="231" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -9146,7 +9160,7 @@
       <c r="AH231" s="3"/>
       <c r="AI231" s="3"/>
     </row>
-    <row r="232" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -9181,7 +9195,7 @@
       <c r="AH232" s="3"/>
       <c r="AI232" s="3"/>
     </row>
-    <row r="233" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -9216,7 +9230,7 @@
       <c r="AH233" s="3"/>
       <c r="AI233" s="3"/>
     </row>
-    <row r="234" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -9251,7 +9265,7 @@
       <c r="AH234" s="3"/>
       <c r="AI234" s="3"/>
     </row>
-    <row r="235" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -9286,7 +9300,7 @@
       <c r="AH235" s="3"/>
       <c r="AI235" s="3"/>
     </row>
-    <row r="236" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -9321,7 +9335,7 @@
       <c r="AH236" s="3"/>
       <c r="AI236" s="3"/>
     </row>
-    <row r="237" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -9356,7 +9370,7 @@
       <c r="AH237" s="3"/>
       <c r="AI237" s="3"/>
     </row>
-    <row r="238" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -9391,7 +9405,7 @@
       <c r="AH238" s="3"/>
       <c r="AI238" s="3"/>
     </row>
-    <row r="239" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -9426,7 +9440,7 @@
       <c r="AH239" s="3"/>
       <c r="AI239" s="3"/>
     </row>
-    <row r="240" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
@@ -9461,7 +9475,7 @@
       <c r="AH240" s="3"/>
       <c r="AI240" s="3"/>
     </row>
-    <row r="241" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -9496,7 +9510,7 @@
       <c r="AH241" s="3"/>
       <c r="AI241" s="3"/>
     </row>
-    <row r="242" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -9531,7 +9545,7 @@
       <c r="AH242" s="3"/>
       <c r="AI242" s="3"/>
     </row>
-    <row r="243" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -9566,7 +9580,7 @@
       <c r="AH243" s="3"/>
       <c r="AI243" s="3"/>
     </row>
-    <row r="244" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -9601,7 +9615,7 @@
       <c r="AH244" s="3"/>
       <c r="AI244" s="3"/>
     </row>
-    <row r="245" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -9636,7 +9650,7 @@
       <c r="AH245" s="3"/>
       <c r="AI245" s="3"/>
     </row>
-    <row r="246" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
@@ -9671,7 +9685,7 @@
       <c r="AH246" s="3"/>
       <c r="AI246" s="3"/>
     </row>
-    <row r="247" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
@@ -9706,7 +9720,7 @@
       <c r="AH247" s="3"/>
       <c r="AI247" s="3"/>
     </row>
-    <row r="248" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -9741,7 +9755,7 @@
       <c r="AH248" s="3"/>
       <c r="AI248" s="3"/>
     </row>
-    <row r="249" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -9776,7 +9790,7 @@
       <c r="AH249" s="3"/>
       <c r="AI249" s="3"/>
     </row>
-    <row r="250" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
@@ -9811,7 +9825,7 @@
       <c r="AH250" s="3"/>
       <c r="AI250" s="3"/>
     </row>
-    <row r="251" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -9846,7 +9860,7 @@
       <c r="AH251" s="3"/>
       <c r="AI251" s="3"/>
     </row>
-    <row r="252" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
@@ -9881,7 +9895,7 @@
       <c r="AH252" s="3"/>
       <c r="AI252" s="3"/>
     </row>
-    <row r="253" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
@@ -9916,7 +9930,7 @@
       <c r="AH253" s="3"/>
       <c r="AI253" s="3"/>
     </row>
-    <row r="254" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -9951,7 +9965,7 @@
       <c r="AH254" s="3"/>
       <c r="AI254" s="3"/>
     </row>
-    <row r="255" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
@@ -9986,7 +10000,7 @@
       <c r="AH255" s="3"/>
       <c r="AI255" s="3"/>
     </row>
-    <row r="256" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
@@ -10021,7 +10035,7 @@
       <c r="AH256" s="3"/>
       <c r="AI256" s="3"/>
     </row>
-    <row r="257" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
@@ -10056,7 +10070,7 @@
       <c r="AH257" s="3"/>
       <c r="AI257" s="3"/>
     </row>
-    <row r="258" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -10091,7 +10105,7 @@
       <c r="AH258" s="3"/>
       <c r="AI258" s="3"/>
     </row>
-    <row r="259" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
@@ -10126,7 +10140,7 @@
       <c r="AH259" s="3"/>
       <c r="AI259" s="3"/>
     </row>
-    <row r="260" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
@@ -10161,7 +10175,7 @@
       <c r="AH260" s="3"/>
       <c r="AI260" s="3"/>
     </row>
-    <row r="261" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
@@ -10196,7 +10210,7 @@
       <c r="AH261" s="3"/>
       <c r="AI261" s="3"/>
     </row>
-    <row r="262" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
@@ -10231,7 +10245,7 @@
       <c r="AH262" s="3"/>
       <c r="AI262" s="3"/>
     </row>
-    <row r="263" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
@@ -10266,7 +10280,7 @@
       <c r="AH263" s="3"/>
       <c r="AI263" s="3"/>
     </row>
-    <row r="264" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
@@ -10301,7 +10315,7 @@
       <c r="AH264" s="3"/>
       <c r="AI264" s="3"/>
     </row>
-    <row r="265" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
@@ -10336,7 +10350,7 @@
       <c r="AH265" s="3"/>
       <c r="AI265" s="3"/>
     </row>
-    <row r="266" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
@@ -10371,7 +10385,7 @@
       <c r="AH266" s="3"/>
       <c r="AI266" s="3"/>
     </row>
-    <row r="267" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
@@ -10406,7 +10420,7 @@
       <c r="AH267" s="3"/>
       <c r="AI267" s="3"/>
     </row>
-    <row r="268" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
@@ -10441,7 +10455,7 @@
       <c r="AH268" s="3"/>
       <c r="AI268" s="3"/>
     </row>
-    <row r="269" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
@@ -10476,7 +10490,7 @@
       <c r="AH269" s="3"/>
       <c r="AI269" s="3"/>
     </row>
-    <row r="270" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
@@ -10511,7 +10525,7 @@
       <c r="AH270" s="3"/>
       <c r="AI270" s="3"/>
     </row>
-    <row r="271" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
@@ -10546,7 +10560,7 @@
       <c r="AH271" s="3"/>
       <c r="AI271" s="3"/>
     </row>
-    <row r="272" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
@@ -10581,7 +10595,7 @@
       <c r="AH272" s="3"/>
       <c r="AI272" s="3"/>
     </row>
-    <row r="273" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
@@ -10616,7 +10630,7 @@
       <c r="AH273" s="3"/>
       <c r="AI273" s="3"/>
     </row>
-    <row r="274" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
@@ -10651,7 +10665,7 @@
       <c r="AH274" s="3"/>
       <c r="AI274" s="3"/>
     </row>
-    <row r="275" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
@@ -10686,7 +10700,7 @@
       <c r="AH275" s="3"/>
       <c r="AI275" s="3"/>
     </row>
-    <row r="276" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
@@ -10721,7 +10735,7 @@
       <c r="AH276" s="3"/>
       <c r="AI276" s="3"/>
     </row>
-    <row r="277" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
@@ -10756,7 +10770,7 @@
       <c r="AH277" s="3"/>
       <c r="AI277" s="3"/>
     </row>
-    <row r="278" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
@@ -10791,7 +10805,7 @@
       <c r="AH278" s="3"/>
       <c r="AI278" s="3"/>
     </row>
-    <row r="279" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
@@ -10826,7 +10840,7 @@
       <c r="AH279" s="3"/>
       <c r="AI279" s="3"/>
     </row>
-    <row r="280" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
@@ -10861,7 +10875,7 @@
       <c r="AH280" s="3"/>
       <c r="AI280" s="3"/>
     </row>
-    <row r="281" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
@@ -10896,7 +10910,7 @@
       <c r="AH281" s="3"/>
       <c r="AI281" s="3"/>
     </row>
-    <row r="282" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
@@ -10931,7 +10945,7 @@
       <c r="AH282" s="3"/>
       <c r="AI282" s="3"/>
     </row>
-    <row r="283" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
@@ -10966,7 +10980,7 @@
       <c r="AH283" s="3"/>
       <c r="AI283" s="3"/>
     </row>
-    <row r="284" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
@@ -11001,7 +11015,7 @@
       <c r="AH284" s="3"/>
       <c r="AI284" s="3"/>
     </row>
-    <row r="285" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
@@ -11036,7 +11050,7 @@
       <c r="AH285" s="3"/>
       <c r="AI285" s="3"/>
     </row>
-    <row r="286" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
@@ -11071,7 +11085,7 @@
       <c r="AH286" s="3"/>
       <c r="AI286" s="3"/>
     </row>
-    <row r="287" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
@@ -11106,7 +11120,7 @@
       <c r="AH287" s="3"/>
       <c r="AI287" s="3"/>
     </row>
-    <row r="288" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
@@ -11141,7 +11155,7 @@
       <c r="AH288" s="3"/>
       <c r="AI288" s="3"/>
     </row>
-    <row r="289" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
@@ -11176,7 +11190,7 @@
       <c r="AH289" s="3"/>
       <c r="AI289" s="3"/>
     </row>
-    <row r="290" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
@@ -11211,7 +11225,7 @@
       <c r="AH290" s="3"/>
       <c r="AI290" s="3"/>
     </row>
-    <row r="291" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
@@ -11246,7 +11260,7 @@
       <c r="AH291" s="3"/>
       <c r="AI291" s="3"/>
     </row>
-    <row r="292" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
@@ -11281,7 +11295,7 @@
       <c r="AH292" s="3"/>
       <c r="AI292" s="3"/>
     </row>
-    <row r="293" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
@@ -11316,7 +11330,7 @@
       <c r="AH293" s="3"/>
       <c r="AI293" s="3"/>
     </row>
-    <row r="294" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
@@ -11351,7 +11365,7 @@
       <c r="AH294" s="3"/>
       <c r="AI294" s="3"/>
     </row>
-    <row r="295" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
@@ -11386,7 +11400,7 @@
       <c r="AH295" s="3"/>
       <c r="AI295" s="3"/>
     </row>
-    <row r="296" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
@@ -11421,7 +11435,7 @@
       <c r="AH296" s="3"/>
       <c r="AI296" s="3"/>
     </row>
-    <row r="297" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
@@ -11456,7 +11470,7 @@
       <c r="AH297" s="3"/>
       <c r="AI297" s="3"/>
     </row>
-    <row r="298" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
@@ -11491,7 +11505,7 @@
       <c r="AH298" s="3"/>
       <c r="AI298" s="3"/>
     </row>
-    <row r="299" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
@@ -11526,7 +11540,7 @@
       <c r="AH299" s="3"/>
       <c r="AI299" s="3"/>
     </row>
-    <row r="300" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
@@ -11561,7 +11575,7 @@
       <c r="AH300" s="3"/>
       <c r="AI300" s="3"/>
     </row>
-    <row r="301" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
@@ -11596,7 +11610,7 @@
       <c r="AH301" s="3"/>
       <c r="AI301" s="3"/>
     </row>
-    <row r="302" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
@@ -11631,7 +11645,7 @@
       <c r="AH302" s="3"/>
       <c r="AI302" s="3"/>
     </row>
-    <row r="303" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
@@ -11666,7 +11680,7 @@
       <c r="AH303" s="3"/>
       <c r="AI303" s="3"/>
     </row>
-    <row r="304" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
@@ -11701,7 +11715,7 @@
       <c r="AH304" s="3"/>
       <c r="AI304" s="3"/>
     </row>
-    <row r="305" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
@@ -11736,7 +11750,7 @@
       <c r="AH305" s="3"/>
       <c r="AI305" s="3"/>
     </row>
-    <row r="306" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
@@ -11771,7 +11785,7 @@
       <c r="AH306" s="3"/>
       <c r="AI306" s="3"/>
     </row>
-    <row r="307" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
@@ -11806,7 +11820,7 @@
       <c r="AH307" s="3"/>
       <c r="AI307" s="3"/>
     </row>
-    <row r="308" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
@@ -11841,7 +11855,7 @@
       <c r="AH308" s="3"/>
       <c r="AI308" s="3"/>
     </row>
-    <row r="309" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
@@ -11876,7 +11890,7 @@
       <c r="AH309" s="3"/>
       <c r="AI309" s="3"/>
     </row>
-    <row r="310" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
@@ -11911,7 +11925,7 @@
       <c r="AH310" s="3"/>
       <c r="AI310" s="3"/>
     </row>
-    <row r="311" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
@@ -11946,7 +11960,7 @@
       <c r="AH311" s="3"/>
       <c r="AI311" s="3"/>
     </row>
-    <row r="312" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
@@ -11981,7 +11995,7 @@
       <c r="AH312" s="3"/>
       <c r="AI312" s="3"/>
     </row>
-    <row r="313" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
@@ -12016,7 +12030,7 @@
       <c r="AH313" s="3"/>
       <c r="AI313" s="3"/>
     </row>
-    <row r="314" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
@@ -12051,7 +12065,7 @@
       <c r="AH314" s="3"/>
       <c r="AI314" s="3"/>
     </row>
-    <row r="315" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
@@ -12086,7 +12100,7 @@
       <c r="AH315" s="3"/>
       <c r="AI315" s="3"/>
     </row>
-    <row r="316" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
@@ -12121,7 +12135,7 @@
       <c r="AH316" s="3"/>
       <c r="AI316" s="3"/>
     </row>
-    <row r="317" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
@@ -12156,7 +12170,7 @@
       <c r="AH317" s="3"/>
       <c r="AI317" s="3"/>
     </row>
-    <row r="318" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
@@ -12191,7 +12205,7 @@
       <c r="AH318" s="3"/>
       <c r="AI318" s="3"/>
     </row>
-    <row r="319" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
@@ -12226,7 +12240,7 @@
       <c r="AH319" s="3"/>
       <c r="AI319" s="3"/>
     </row>
-    <row r="320" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
@@ -12261,7 +12275,7 @@
       <c r="AH320" s="3"/>
       <c r="AI320" s="3"/>
     </row>
-    <row r="321" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
@@ -12296,7 +12310,7 @@
       <c r="AH321" s="3"/>
       <c r="AI321" s="3"/>
     </row>
-    <row r="322" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
@@ -12331,7 +12345,7 @@
       <c r="AH322" s="3"/>
       <c r="AI322" s="3"/>
     </row>
-    <row r="323" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
@@ -12366,7 +12380,7 @@
       <c r="AH323" s="3"/>
       <c r="AI323" s="3"/>
     </row>
-    <row r="324" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
@@ -12401,7 +12415,7 @@
       <c r="AH324" s="3"/>
       <c r="AI324" s="3"/>
     </row>
-    <row r="325" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
@@ -12436,7 +12450,7 @@
       <c r="AH325" s="3"/>
       <c r="AI325" s="3"/>
     </row>
-    <row r="326" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
@@ -12471,7 +12485,7 @@
       <c r="AH326" s="3"/>
       <c r="AI326" s="3"/>
     </row>
-    <row r="327" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
@@ -12506,7 +12520,7 @@
       <c r="AH327" s="3"/>
       <c r="AI327" s="3"/>
     </row>
-    <row r="328" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
@@ -12541,7 +12555,7 @@
       <c r="AH328" s="3"/>
       <c r="AI328" s="3"/>
     </row>
-    <row r="329" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
       <c r="E329" s="3"/>
@@ -12576,7 +12590,7 @@
       <c r="AH329" s="3"/>
       <c r="AI329" s="3"/>
     </row>
-    <row r="330" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
@@ -12611,7 +12625,7 @@
       <c r="AH330" s="3"/>
       <c r="AI330" s="3"/>
     </row>
-    <row r="331" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
@@ -12646,7 +12660,7 @@
       <c r="AH331" s="3"/>
       <c r="AI331" s="3"/>
     </row>
-    <row r="332" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
@@ -12681,7 +12695,7 @@
       <c r="AH332" s="3"/>
       <c r="AI332" s="3"/>
     </row>
-    <row r="333" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
@@ -12716,7 +12730,7 @@
       <c r="AH333" s="3"/>
       <c r="AI333" s="3"/>
     </row>
-    <row r="334" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
@@ -12751,7 +12765,7 @@
       <c r="AH334" s="3"/>
       <c r="AI334" s="3"/>
     </row>
-    <row r="335" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
@@ -12786,7 +12800,7 @@
       <c r="AH335" s="3"/>
       <c r="AI335" s="3"/>
     </row>
-    <row r="336" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
@@ -12821,7 +12835,7 @@
       <c r="AH336" s="3"/>
       <c r="AI336" s="3"/>
     </row>
-    <row r="337" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
@@ -12856,7 +12870,7 @@
       <c r="AH337" s="3"/>
       <c r="AI337" s="3"/>
     </row>
-    <row r="338" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
       <c r="E338" s="3"/>
@@ -12891,7 +12905,7 @@
       <c r="AH338" s="3"/>
       <c r="AI338" s="3"/>
     </row>
-    <row r="339" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
@@ -12926,7 +12940,7 @@
       <c r="AH339" s="3"/>
       <c r="AI339" s="3"/>
     </row>
-    <row r="340" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
@@ -12961,7 +12975,7 @@
       <c r="AH340" s="3"/>
       <c r="AI340" s="3"/>
     </row>
-    <row r="341" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
@@ -12996,7 +13010,7 @@
       <c r="AH341" s="3"/>
       <c r="AI341" s="3"/>
     </row>
-    <row r="342" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
@@ -13031,7 +13045,7 @@
       <c r="AH342" s="3"/>
       <c r="AI342" s="3"/>
     </row>
-    <row r="343" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
       <c r="E343" s="3"/>
@@ -13066,7 +13080,7 @@
       <c r="AH343" s="3"/>
       <c r="AI343" s="3"/>
     </row>
-    <row r="344" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
       <c r="E344" s="3"/>
@@ -13101,7 +13115,7 @@
       <c r="AH344" s="3"/>
       <c r="AI344" s="3"/>
     </row>
-    <row r="345" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
       <c r="E345" s="3"/>
@@ -13136,7 +13150,7 @@
       <c r="AH345" s="3"/>
       <c r="AI345" s="3"/>
     </row>
-    <row r="346" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
       <c r="E346" s="3"/>
@@ -13171,7 +13185,7 @@
       <c r="AH346" s="3"/>
       <c r="AI346" s="3"/>
     </row>
-    <row r="347" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
       <c r="E347" s="3"/>
@@ -13206,7 +13220,7 @@
       <c r="AH347" s="3"/>
       <c r="AI347" s="3"/>
     </row>
-    <row r="348" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
       <c r="E348" s="3"/>
@@ -13241,7 +13255,7 @@
       <c r="AH348" s="3"/>
       <c r="AI348" s="3"/>
     </row>
-    <row r="349" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
       <c r="E349" s="3"/>
@@ -13276,7 +13290,7 @@
       <c r="AH349" s="3"/>
       <c r="AI349" s="3"/>
     </row>
-    <row r="350" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
@@ -13311,7 +13325,7 @@
       <c r="AH350" s="3"/>
       <c r="AI350" s="3"/>
     </row>
-    <row r="351" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
       <c r="E351" s="3"/>
@@ -13346,7 +13360,7 @@
       <c r="AH351" s="3"/>
       <c r="AI351" s="3"/>
     </row>
-    <row r="352" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
       <c r="E352" s="3"/>
@@ -13381,7 +13395,7 @@
       <c r="AH352" s="3"/>
       <c r="AI352" s="3"/>
     </row>
-    <row r="353" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
       <c r="E353" s="3"/>
@@ -13416,7 +13430,7 @@
       <c r="AH353" s="3"/>
       <c r="AI353" s="3"/>
     </row>
-    <row r="354" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
       <c r="E354" s="3"/>
@@ -13451,7 +13465,7 @@
       <c r="AH354" s="3"/>
       <c r="AI354" s="3"/>
     </row>
-    <row r="355" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
       <c r="E355" s="3"/>
@@ -13486,7 +13500,7 @@
       <c r="AH355" s="3"/>
       <c r="AI355" s="3"/>
     </row>
-    <row r="356" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
       <c r="E356" s="3"/>
@@ -13521,7 +13535,7 @@
       <c r="AH356" s="3"/>
       <c r="AI356" s="3"/>
     </row>
-    <row r="357" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
       <c r="E357" s="3"/>
@@ -13556,7 +13570,7 @@
       <c r="AH357" s="3"/>
       <c r="AI357" s="3"/>
     </row>
-    <row r="358" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
       <c r="E358" s="3"/>
@@ -13591,7 +13605,7 @@
       <c r="AH358" s="3"/>
       <c r="AI358" s="3"/>
     </row>
-    <row r="359" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
       <c r="E359" s="3"/>
@@ -13626,7 +13640,7 @@
       <c r="AH359" s="3"/>
       <c r="AI359" s="3"/>
     </row>
-    <row r="360" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
       <c r="E360" s="3"/>
@@ -13661,7 +13675,7 @@
       <c r="AH360" s="3"/>
       <c r="AI360" s="3"/>
     </row>
-    <row r="361" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
       <c r="E361" s="3"/>
@@ -13696,7 +13710,7 @@
       <c r="AH361" s="3"/>
       <c r="AI361" s="3"/>
     </row>
-    <row r="362" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
       <c r="E362" s="3"/>
@@ -13731,7 +13745,7 @@
       <c r="AH362" s="3"/>
       <c r="AI362" s="3"/>
     </row>
-    <row r="363" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
       <c r="E363" s="3"/>
@@ -13766,7 +13780,7 @@
       <c r="AH363" s="3"/>
       <c r="AI363" s="3"/>
     </row>
-    <row r="364" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
       <c r="E364" s="3"/>
@@ -13801,7 +13815,7 @@
       <c r="AH364" s="3"/>
       <c r="AI364" s="3"/>
     </row>
-    <row r="365" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
       <c r="E365" s="3"/>
@@ -13836,7 +13850,7 @@
       <c r="AH365" s="3"/>
       <c r="AI365" s="3"/>
     </row>
-    <row r="366" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C366" s="3"/>
       <c r="D366" s="3"/>
       <c r="E366" s="3"/>
@@ -13871,7 +13885,7 @@
       <c r="AH366" s="3"/>
       <c r="AI366" s="3"/>
     </row>
-    <row r="367" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C367" s="3"/>
       <c r="D367" s="3"/>
       <c r="E367" s="3"/>
@@ -13906,7 +13920,7 @@
       <c r="AH367" s="3"/>
       <c r="AI367" s="3"/>
     </row>
-    <row r="368" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
@@ -13941,7 +13955,7 @@
       <c r="AH368" s="3"/>
       <c r="AI368" s="3"/>
     </row>
-    <row r="369" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C369" s="3"/>
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
@@ -13976,7 +13990,7 @@
       <c r="AH369" s="3"/>
       <c r="AI369" s="3"/>
     </row>
-    <row r="370" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C370" s="3"/>
       <c r="D370" s="3"/>
       <c r="E370" s="3"/>
@@ -14011,7 +14025,7 @@
       <c r="AH370" s="3"/>
       <c r="AI370" s="3"/>
     </row>
-    <row r="371" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C371" s="3"/>
       <c r="D371" s="3"/>
       <c r="E371" s="3"/>
@@ -14046,7 +14060,7 @@
       <c r="AH371" s="3"/>
       <c r="AI371" s="3"/>
     </row>
-    <row r="372" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C372" s="3"/>
       <c r="D372" s="3"/>
       <c r="E372" s="3"/>
@@ -14081,7 +14095,7 @@
       <c r="AH372" s="3"/>
       <c r="AI372" s="3"/>
     </row>
-    <row r="373" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
       <c r="E373" s="3"/>
@@ -14116,7 +14130,7 @@
       <c r="AH373" s="3"/>
       <c r="AI373" s="3"/>
     </row>
-    <row r="374" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C374" s="3"/>
       <c r="D374" s="3"/>
       <c r="E374" s="3"/>
@@ -14151,7 +14165,7 @@
       <c r="AH374" s="3"/>
       <c r="AI374" s="3"/>
     </row>
-    <row r="375" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
       <c r="E375" s="3"/>
@@ -14186,7 +14200,7 @@
       <c r="AH375" s="3"/>
       <c r="AI375" s="3"/>
     </row>
-    <row r="376" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
       <c r="E376" s="3"/>
@@ -14221,7 +14235,7 @@
       <c r="AH376" s="3"/>
       <c r="AI376" s="3"/>
     </row>
-    <row r="377" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
       <c r="E377" s="3"/>
@@ -14256,7 +14270,7 @@
       <c r="AH377" s="3"/>
       <c r="AI377" s="3"/>
     </row>
-    <row r="378" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C378" s="3"/>
       <c r="D378" s="3"/>
       <c r="E378" s="3"/>
@@ -14291,7 +14305,7 @@
       <c r="AH378" s="3"/>
       <c r="AI378" s="3"/>
     </row>
-    <row r="379" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C379" s="3"/>
       <c r="D379" s="3"/>
       <c r="E379" s="3"/>
@@ -14326,7 +14340,7 @@
       <c r="AH379" s="3"/>
       <c r="AI379" s="3"/>
     </row>
-    <row r="380" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C380" s="3"/>
       <c r="D380" s="3"/>
       <c r="E380" s="3"/>
@@ -14361,7 +14375,7 @@
       <c r="AH380" s="3"/>
       <c r="AI380" s="3"/>
     </row>
-    <row r="381" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
       <c r="E381" s="3"/>
@@ -14396,7 +14410,7 @@
       <c r="AH381" s="3"/>
       <c r="AI381" s="3"/>
     </row>
-    <row r="382" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C382" s="3"/>
       <c r="D382" s="3"/>
       <c r="E382" s="3"/>
@@ -14431,7 +14445,7 @@
       <c r="AH382" s="3"/>
       <c r="AI382" s="3"/>
     </row>
-    <row r="383" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C383" s="3"/>
       <c r="D383" s="3"/>
       <c r="E383" s="3"/>
@@ -14466,7 +14480,7 @@
       <c r="AH383" s="3"/>
       <c r="AI383" s="3"/>
     </row>
-    <row r="384" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C384" s="3"/>
       <c r="D384" s="3"/>
       <c r="E384" s="3"/>
@@ -14501,7 +14515,7 @@
       <c r="AH384" s="3"/>
       <c r="AI384" s="3"/>
     </row>
-    <row r="385" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
       <c r="E385" s="3"/>
@@ -14536,7 +14550,7 @@
       <c r="AH385" s="3"/>
       <c r="AI385" s="3"/>
     </row>
-    <row r="386" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C386" s="3"/>
       <c r="D386" s="3"/>
       <c r="E386" s="3"/>
@@ -14571,7 +14585,7 @@
       <c r="AH386" s="3"/>
       <c r="AI386" s="3"/>
     </row>
-    <row r="387" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C387" s="3"/>
       <c r="D387" s="3"/>
       <c r="E387" s="3"/>
@@ -14606,7 +14620,7 @@
       <c r="AH387" s="3"/>
       <c r="AI387" s="3"/>
     </row>
-    <row r="388" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C388" s="3"/>
       <c r="D388" s="3"/>
       <c r="E388" s="3"/>
@@ -14641,7 +14655,7 @@
       <c r="AH388" s="3"/>
       <c r="AI388" s="3"/>
     </row>
-    <row r="389" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
       <c r="E389" s="3"/>
@@ -14676,7 +14690,7 @@
       <c r="AH389" s="3"/>
       <c r="AI389" s="3"/>
     </row>
-    <row r="390" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C390" s="3"/>
       <c r="D390" s="3"/>
       <c r="E390" s="3"/>
@@ -14711,7 +14725,7 @@
       <c r="AH390" s="3"/>
       <c r="AI390" s="3"/>
     </row>
-    <row r="391" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C391" s="3"/>
       <c r="D391" s="3"/>
       <c r="E391" s="3"/>
@@ -14746,7 +14760,7 @@
       <c r="AH391" s="3"/>
       <c r="AI391" s="3"/>
     </row>
-    <row r="392" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C392" s="3"/>
       <c r="D392" s="3"/>
       <c r="E392" s="3"/>
@@ -14781,7 +14795,7 @@
       <c r="AH392" s="3"/>
       <c r="AI392" s="3"/>
     </row>
-    <row r="393" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
       <c r="E393" s="3"/>
@@ -14816,7 +14830,7 @@
       <c r="AH393" s="3"/>
       <c r="AI393" s="3"/>
     </row>
-    <row r="394" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C394" s="3"/>
       <c r="D394" s="3"/>
       <c r="E394" s="3"/>
@@ -14851,7 +14865,7 @@
       <c r="AH394" s="3"/>
       <c r="AI394" s="3"/>
     </row>
-    <row r="395" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C395" s="3"/>
       <c r="D395" s="3"/>
       <c r="E395" s="3"/>
@@ -14886,7 +14900,7 @@
       <c r="AH395" s="3"/>
       <c r="AI395" s="3"/>
     </row>
-    <row r="396" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C396" s="3"/>
       <c r="D396" s="3"/>
       <c r="E396" s="3"/>
@@ -14921,7 +14935,7 @@
       <c r="AH396" s="3"/>
       <c r="AI396" s="3"/>
     </row>
-    <row r="397" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C397" s="3"/>
       <c r="D397" s="3"/>
       <c r="E397" s="3"/>
@@ -14956,7 +14970,7 @@
       <c r="AH397" s="3"/>
       <c r="AI397" s="3"/>
     </row>
-    <row r="398" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C398" s="3"/>
       <c r="D398" s="3"/>
       <c r="E398" s="3"/>
@@ -14991,7 +15005,7 @@
       <c r="AH398" s="3"/>
       <c r="AI398" s="3"/>
     </row>
-    <row r="399" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C399" s="3"/>
       <c r="D399" s="3"/>
       <c r="E399" s="3"/>
@@ -15026,7 +15040,7 @@
       <c r="AH399" s="3"/>
       <c r="AI399" s="3"/>
     </row>
-    <row r="400" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C400" s="3"/>
       <c r="D400" s="3"/>
       <c r="E400" s="3"/>
@@ -15061,7 +15075,7 @@
       <c r="AH400" s="3"/>
       <c r="AI400" s="3"/>
     </row>
-    <row r="401" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C401" s="3"/>
       <c r="D401" s="3"/>
       <c r="E401" s="3"/>
@@ -15096,7 +15110,7 @@
       <c r="AH401" s="3"/>
       <c r="AI401" s="3"/>
     </row>
-    <row r="402" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C402" s="3"/>
       <c r="D402" s="3"/>
       <c r="E402" s="3"/>
@@ -15131,7 +15145,7 @@
       <c r="AH402" s="3"/>
       <c r="AI402" s="3"/>
     </row>
-    <row r="403" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C403" s="3"/>
       <c r="D403" s="3"/>
       <c r="E403" s="3"/>
@@ -15166,7 +15180,7 @@
       <c r="AH403" s="3"/>
       <c r="AI403" s="3"/>
     </row>
-    <row r="404" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C404" s="3"/>
       <c r="D404" s="3"/>
       <c r="E404" s="3"/>
@@ -15201,7 +15215,7 @@
       <c r="AH404" s="3"/>
       <c r="AI404" s="3"/>
     </row>
-    <row r="405" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C405" s="3"/>
       <c r="D405" s="3"/>
       <c r="E405" s="3"/>
@@ -15236,7 +15250,7 @@
       <c r="AH405" s="3"/>
       <c r="AI405" s="3"/>
     </row>
-    <row r="406" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C406" s="3"/>
       <c r="D406" s="3"/>
       <c r="E406" s="3"/>
@@ -15271,7 +15285,7 @@
       <c r="AH406" s="3"/>
       <c r="AI406" s="3"/>
     </row>
-    <row r="407" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C407" s="3"/>
       <c r="D407" s="3"/>
       <c r="E407" s="3"/>
@@ -15306,7 +15320,7 @@
       <c r="AH407" s="3"/>
       <c r="AI407" s="3"/>
     </row>
-    <row r="408" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C408" s="3"/>
       <c r="D408" s="3"/>
       <c r="E408" s="3"/>
@@ -15341,7 +15355,7 @@
       <c r="AH408" s="3"/>
       <c r="AI408" s="3"/>
     </row>
-    <row r="409" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C409" s="3"/>
       <c r="D409" s="3"/>
       <c r="E409" s="3"/>
@@ -15376,7 +15390,7 @@
       <c r="AH409" s="3"/>
       <c r="AI409" s="3"/>
     </row>
-    <row r="410" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C410" s="3"/>
       <c r="D410" s="3"/>
       <c r="E410" s="3"/>
@@ -15411,7 +15425,7 @@
       <c r="AH410" s="3"/>
       <c r="AI410" s="3"/>
     </row>
-    <row r="411" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C411" s="3"/>
       <c r="D411" s="3"/>
       <c r="E411" s="3"/>
@@ -15446,7 +15460,7 @@
       <c r="AH411" s="3"/>
       <c r="AI411" s="3"/>
     </row>
-    <row r="412" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C412" s="3"/>
       <c r="D412" s="3"/>
       <c r="E412" s="3"/>
@@ -15481,7 +15495,7 @@
       <c r="AH412" s="3"/>
       <c r="AI412" s="3"/>
     </row>
-    <row r="413" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C413" s="3"/>
       <c r="D413" s="3"/>
       <c r="E413" s="3"/>
@@ -15516,7 +15530,7 @@
       <c r="AH413" s="3"/>
       <c r="AI413" s="3"/>
     </row>
-    <row r="414" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C414" s="3"/>
       <c r="D414" s="3"/>
       <c r="E414" s="3"/>
@@ -15551,7 +15565,7 @@
       <c r="AH414" s="3"/>
       <c r="AI414" s="3"/>
     </row>
-    <row r="415" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C415" s="3"/>
       <c r="D415" s="3"/>
       <c r="E415" s="3"/>
@@ -15586,7 +15600,7 @@
       <c r="AH415" s="3"/>
       <c r="AI415" s="3"/>
     </row>
-    <row r="416" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C416" s="3"/>
       <c r="D416" s="3"/>
       <c r="E416" s="3"/>
@@ -15621,7 +15635,7 @@
       <c r="AH416" s="3"/>
       <c r="AI416" s="3"/>
     </row>
-    <row r="417" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C417" s="3"/>
       <c r="D417" s="3"/>
       <c r="E417" s="3"/>
@@ -15656,7 +15670,7 @@
       <c r="AH417" s="3"/>
       <c r="AI417" s="3"/>
     </row>
-    <row r="418" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C418" s="3"/>
       <c r="D418" s="3"/>
       <c r="E418" s="3"/>
@@ -15691,7 +15705,7 @@
       <c r="AH418" s="3"/>
       <c r="AI418" s="3"/>
     </row>
-    <row r="419" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C419" s="3"/>
       <c r="D419" s="3"/>
       <c r="E419" s="3"/>
@@ -15726,7 +15740,7 @@
       <c r="AH419" s="3"/>
       <c r="AI419" s="3"/>
     </row>
-    <row r="420" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C420" s="3"/>
       <c r="D420" s="3"/>
       <c r="E420" s="3"/>
@@ -15761,7 +15775,7 @@
       <c r="AH420" s="3"/>
       <c r="AI420" s="3"/>
     </row>
-    <row r="421" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C421" s="3"/>
       <c r="D421" s="3"/>
       <c r="E421" s="3"/>
@@ -15796,7 +15810,7 @@
       <c r="AH421" s="3"/>
       <c r="AI421" s="3"/>
     </row>
-    <row r="422" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C422" s="3"/>
       <c r="D422" s="3"/>
       <c r="E422" s="3"/>
@@ -15831,7 +15845,7 @@
       <c r="AH422" s="3"/>
       <c r="AI422" s="3"/>
     </row>
-    <row r="423" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
       <c r="E423" s="3"/>
@@ -15866,7 +15880,7 @@
       <c r="AH423" s="3"/>
       <c r="AI423" s="3"/>
     </row>
-    <row r="424" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C424" s="3"/>
       <c r="D424" s="3"/>
       <c r="E424" s="3"/>
@@ -15901,7 +15915,7 @@
       <c r="AH424" s="3"/>
       <c r="AI424" s="3"/>
     </row>
-    <row r="425" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C425" s="3"/>
       <c r="D425" s="3"/>
       <c r="E425" s="3"/>
@@ -15936,7 +15950,7 @@
       <c r="AH425" s="3"/>
       <c r="AI425" s="3"/>
     </row>
-    <row r="426" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C426" s="3"/>
       <c r="D426" s="3"/>
       <c r="E426" s="3"/>
@@ -15971,7 +15985,7 @@
       <c r="AH426" s="3"/>
       <c r="AI426" s="3"/>
     </row>
-    <row r="427" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C427" s="3"/>
       <c r="D427" s="3"/>
       <c r="E427" s="3"/>
@@ -16006,7 +16020,7 @@
       <c r="AH427" s="3"/>
       <c r="AI427" s="3"/>
     </row>
-    <row r="428" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C428" s="3"/>
       <c r="D428" s="3"/>
       <c r="E428" s="3"/>
@@ -16041,7 +16055,7 @@
       <c r="AH428" s="3"/>
       <c r="AI428" s="3"/>
     </row>
-    <row r="429" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C429" s="3"/>
       <c r="D429" s="3"/>
       <c r="E429" s="3"/>
@@ -16076,7 +16090,7 @@
       <c r="AH429" s="3"/>
       <c r="AI429" s="3"/>
     </row>
-    <row r="430" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C430" s="3"/>
       <c r="D430" s="3"/>
       <c r="E430" s="3"/>
@@ -16111,7 +16125,7 @@
       <c r="AH430" s="3"/>
       <c r="AI430" s="3"/>
     </row>
-    <row r="431" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C431" s="3"/>
       <c r="D431" s="3"/>
       <c r="E431" s="3"/>
@@ -16146,7 +16160,7 @@
       <c r="AH431" s="3"/>
       <c r="AI431" s="3"/>
     </row>
-    <row r="432" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C432" s="3"/>
       <c r="D432" s="3"/>
       <c r="E432" s="3"/>
@@ -16181,7 +16195,7 @@
       <c r="AH432" s="3"/>
       <c r="AI432" s="3"/>
     </row>
-    <row r="433" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C433" s="3"/>
       <c r="D433" s="3"/>
       <c r="E433" s="3"/>
@@ -16216,7 +16230,7 @@
       <c r="AH433" s="3"/>
       <c r="AI433" s="3"/>
     </row>
-    <row r="434" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C434" s="3"/>
       <c r="D434" s="3"/>
       <c r="E434" s="3"/>
@@ -16251,7 +16265,7 @@
       <c r="AH434" s="3"/>
       <c r="AI434" s="3"/>
     </row>
-    <row r="435" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C435" s="3"/>
       <c r="D435" s="3"/>
       <c r="E435" s="3"/>
@@ -16286,7 +16300,7 @@
       <c r="AH435" s="3"/>
       <c r="AI435" s="3"/>
     </row>
-    <row r="436" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C436" s="3"/>
       <c r="D436" s="3"/>
       <c r="E436" s="3"/>
@@ -16321,7 +16335,7 @@
       <c r="AH436" s="3"/>
       <c r="AI436" s="3"/>
     </row>
-    <row r="437" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C437" s="3"/>
       <c r="D437" s="3"/>
       <c r="E437" s="3"/>
@@ -16356,7 +16370,7 @@
       <c r="AH437" s="3"/>
       <c r="AI437" s="3"/>
     </row>
-    <row r="438" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C438" s="3"/>
       <c r="D438" s="3"/>
       <c r="E438" s="3"/>
@@ -16391,7 +16405,7 @@
       <c r="AH438" s="3"/>
       <c r="AI438" s="3"/>
     </row>
-    <row r="439" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C439" s="3"/>
       <c r="D439" s="3"/>
       <c r="E439" s="3"/>
@@ -16426,7 +16440,7 @@
       <c r="AH439" s="3"/>
       <c r="AI439" s="3"/>
     </row>
-    <row r="440" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C440" s="3"/>
       <c r="D440" s="3"/>
       <c r="E440" s="3"/>
@@ -16461,7 +16475,7 @@
       <c r="AH440" s="3"/>
       <c r="AI440" s="3"/>
     </row>
-    <row r="441" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C441" s="3"/>
       <c r="D441" s="3"/>
       <c r="E441" s="3"/>
@@ -16496,7 +16510,7 @@
       <c r="AH441" s="3"/>
       <c r="AI441" s="3"/>
     </row>
-    <row r="442" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C442" s="3"/>
       <c r="D442" s="3"/>
       <c r="E442" s="3"/>
@@ -16531,7 +16545,7 @@
       <c r="AH442" s="3"/>
       <c r="AI442" s="3"/>
     </row>
-    <row r="443" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C443" s="3"/>
       <c r="D443" s="3"/>
       <c r="E443" s="3"/>
@@ -16566,7 +16580,7 @@
       <c r="AH443" s="3"/>
       <c r="AI443" s="3"/>
     </row>
-    <row r="444" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C444" s="3"/>
       <c r="D444" s="3"/>
       <c r="E444" s="3"/>
@@ -16601,7 +16615,7 @@
       <c r="AH444" s="3"/>
       <c r="AI444" s="3"/>
     </row>
-    <row r="445" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C445" s="3"/>
       <c r="D445" s="3"/>
       <c r="E445" s="3"/>
@@ -16636,7 +16650,7 @@
       <c r="AH445" s="3"/>
       <c r="AI445" s="3"/>
     </row>
-    <row r="446" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C446" s="3"/>
       <c r="D446" s="3"/>
       <c r="E446" s="3"/>
@@ -16671,7 +16685,7 @@
       <c r="AH446" s="3"/>
       <c r="AI446" s="3"/>
     </row>
-    <row r="447" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C447" s="3"/>
       <c r="D447" s="3"/>
       <c r="E447" s="3"/>
@@ -16706,7 +16720,7 @@
       <c r="AH447" s="3"/>
       <c r="AI447" s="3"/>
     </row>
-    <row r="448" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C448" s="3"/>
       <c r="D448" s="3"/>
       <c r="E448" s="3"/>
@@ -16741,7 +16755,7 @@
       <c r="AH448" s="3"/>
       <c r="AI448" s="3"/>
     </row>
-    <row r="449" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C449" s="3"/>
       <c r="D449" s="3"/>
       <c r="E449" s="3"/>
@@ -16776,7 +16790,7 @@
       <c r="AH449" s="3"/>
       <c r="AI449" s="3"/>
     </row>
-    <row r="450" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C450" s="3"/>
       <c r="D450" s="3"/>
       <c r="E450" s="3"/>
@@ -16811,7 +16825,7 @@
       <c r="AH450" s="3"/>
       <c r="AI450" s="3"/>
     </row>
-    <row r="451" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C451" s="3"/>
       <c r="D451" s="3"/>
       <c r="E451" s="3"/>
@@ -16846,7 +16860,7 @@
       <c r="AH451" s="3"/>
       <c r="AI451" s="3"/>
     </row>
-    <row r="452" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C452" s="3"/>
       <c r="D452" s="3"/>
       <c r="E452" s="3"/>
@@ -16881,7 +16895,7 @@
       <c r="AH452" s="3"/>
       <c r="AI452" s="3"/>
     </row>
-    <row r="453" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C453" s="3"/>
       <c r="D453" s="3"/>
       <c r="E453" s="3"/>
@@ -16916,7 +16930,7 @@
       <c r="AH453" s="3"/>
       <c r="AI453" s="3"/>
     </row>
-    <row r="454" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C454" s="3"/>
       <c r="D454" s="3"/>
       <c r="E454" s="3"/>
@@ -16951,7 +16965,7 @@
       <c r="AH454" s="3"/>
       <c r="AI454" s="3"/>
     </row>
-    <row r="455" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C455" s="3"/>
       <c r="D455" s="3"/>
       <c r="E455" s="3"/>
@@ -16986,7 +17000,7 @@
       <c r="AH455" s="3"/>
       <c r="AI455" s="3"/>
     </row>
-    <row r="456" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C456" s="3"/>
       <c r="D456" s="3"/>
       <c r="E456" s="3"/>

--- a/ADBE.xlsx
+++ b/ADBE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747B3771-4F7E-455E-8345-32182468AAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495C311B-1406-4AD0-A2F8-4BB5C1844EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{A2819952-F443-4856-A3B0-4932ED140538}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{A2819952-F443-4856-A3B0-4932ED140538}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>ADBE</t>
   </si>
@@ -176,18 +176,36 @@
   <si>
     <t>Tax Rate</t>
   </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -244,21 +262,25 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -597,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA8B7AA3-060B-4A41-B542-B6B2590D69AB}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -620,7 +642,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="2">
-        <v>407.92</v>
+        <v>349.25</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -628,10 +650,10 @@
         <v>4</v>
       </c>
       <c r="G3" s="3">
-        <v>440.2</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>9</v>
+        <v>424.2</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -643,7 +665,7 @@
       </c>
       <c r="G4" s="3">
         <f>+G2*G3</f>
-        <v>179566.38399999999</v>
+        <v>148151.85</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -654,11 +676,11 @@
         <v>6</v>
       </c>
       <c r="G5" s="3">
-        <f>7193+322</f>
-        <v>7515</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>9</v>
+        <f>4982+958</f>
+        <v>5940</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -666,11 +688,10 @@
         <v>7</v>
       </c>
       <c r="G6" s="3">
-        <f>1499+4128</f>
-        <v>5627</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>9</v>
+        <v>6200</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -679,7 +700,7 @@
       </c>
       <c r="G7" s="3">
         <f>+G4-G5+G6</f>
-        <v>177678.38399999999</v>
+        <v>148411.85</v>
       </c>
     </row>
   </sheetData>
@@ -691,11 +712,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD859FD4-8ECE-4440-9194-0DD68C8F4560}">
   <dimension ref="A1:XFD456"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -735,6 +756,18 @@
       <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="K2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="3" spans="1:35 16384:16384" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -746,15 +779,25 @@
         <v>4631</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="G3" s="3">
+        <v>4916</v>
+      </c>
+      <c r="H3" s="3">
+        <v>5060</v>
+      </c>
       <c r="I3" s="3">
         <v>5180</v>
       </c>
       <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+      <c r="K3" s="3">
+        <v>5483</v>
+      </c>
+      <c r="L3" s="3">
+        <v>5641</v>
+      </c>
+      <c r="M3" s="3">
+        <v>5791</v>
+      </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -788,15 +831,25 @@
         <v>96</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="G4" s="3">
+        <v>119</v>
+      </c>
+      <c r="H4" s="3">
+        <v>104</v>
+      </c>
       <c r="I4" s="3">
         <v>82</v>
       </c>
       <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+      <c r="K4" s="3">
+        <v>95</v>
+      </c>
+      <c r="L4" s="3">
+        <v>88</v>
+      </c>
+      <c r="M4" s="3">
+        <v>68</v>
+      </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -830,15 +883,25 @@
         <v>163</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="G5" s="3">
+        <v>147</v>
+      </c>
+      <c r="H5" s="3">
+        <v>145</v>
+      </c>
       <c r="I5" s="3">
         <v>146</v>
       </c>
       <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
+      <c r="K5" s="3">
+        <v>136</v>
+      </c>
+      <c r="L5" s="3">
+        <v>144</v>
+      </c>
+      <c r="M5" s="3">
+        <v>129</v>
+      </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -884,24 +947,36 @@
       </c>
       <c r="G6" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5182</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5309</v>
       </c>
       <c r="I6" s="6">
         <f>SUM(I3:I5)</f>
         <v>5408</v>
       </c>
       <c r="J6" s="6">
-        <f t="shared" ref="J6" si="1">SUM(J3:J5)</f>
+        <f t="shared" ref="J6:N6" si="1">SUM(J3:J5)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+      <c r="K6" s="6">
+        <f t="shared" si="1"/>
+        <v>5714</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" si="1"/>
+        <v>5873</v>
+      </c>
+      <c r="M6" s="6">
+        <f t="shared" si="1"/>
+        <v>5988</v>
+      </c>
+      <c r="N6" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -934,15 +1009,25 @@
         <v>447</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="G7" s="3">
+        <v>455</v>
+      </c>
+      <c r="H7" s="3">
+        <v>456</v>
+      </c>
       <c r="I7" s="3">
         <v>413</v>
       </c>
       <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="K7" s="3">
+        <v>490</v>
+      </c>
+      <c r="L7" s="3">
+        <v>505</v>
+      </c>
+      <c r="M7" s="3">
+        <v>510</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
@@ -976,15 +1061,25 @@
         <v>7</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="G8" s="3">
+        <v>5</v>
+      </c>
+      <c r="H8" s="3">
+        <v>8</v>
+      </c>
       <c r="I8" s="3">
         <v>6</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+      <c r="K8" s="3">
+        <v>6</v>
+      </c>
+      <c r="L8" s="3">
+        <v>6</v>
+      </c>
+      <c r="M8" s="3">
+        <v>5</v>
+      </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
@@ -1018,15 +1113,25 @@
         <v>126</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="G9" s="3">
+        <v>130</v>
+      </c>
+      <c r="H9" s="3">
+        <v>134</v>
+      </c>
       <c r="I9" s="3">
         <v>135</v>
       </c>
       <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
+      <c r="K9" s="3">
+        <v>126</v>
+      </c>
+      <c r="L9" s="3">
+        <v>127</v>
+      </c>
+      <c r="M9" s="3">
+        <v>127</v>
+      </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
@@ -1072,24 +1177,36 @@
       </c>
       <c r="G10" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4592</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4711</v>
       </c>
       <c r="I10" s="3">
         <f>+I6-SUM(I7:I9)</f>
         <v>4854</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" ref="J10" si="3">+J6-SUM(J7:J9)</f>
+        <f t="shared" ref="J10:N10" si="3">+J6-SUM(J7:J9)</f>
         <v>0</v>
       </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
+      <c r="K10" s="3">
+        <f t="shared" si="3"/>
+        <v>5092</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="3"/>
+        <v>5235</v>
+      </c>
+      <c r="M10" s="3">
+        <f t="shared" si="3"/>
+        <v>5346</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
@@ -1122,15 +1239,25 @@
         <v>881</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="G11" s="3">
+        <v>939</v>
+      </c>
+      <c r="H11" s="3">
+        <v>984</v>
+      </c>
       <c r="I11" s="3">
         <v>1022</v>
       </c>
       <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="K11" s="3">
+        <v>1026</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1082</v>
+      </c>
+      <c r="M11" s="3">
+        <v>1088</v>
+      </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
@@ -1164,15 +1291,25 @@
         <v>1337</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="G12" s="3">
+        <v>1352</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1445</v>
+      </c>
       <c r="I12" s="3">
         <v>1431</v>
       </c>
       <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+      <c r="K12" s="3">
+        <v>1495</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1626</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1639</v>
+      </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -1206,15 +1343,25 @@
         <v>353</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="G13" s="3">
+        <v>352</v>
+      </c>
+      <c r="H13" s="3">
+        <v>355</v>
+      </c>
       <c r="I13" s="3">
         <v>366</v>
       </c>
       <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+      <c r="K13" s="3">
+        <v>367</v>
+      </c>
+      <c r="L13" s="3">
+        <v>377</v>
+      </c>
+      <c r="M13" s="3">
+        <v>408</v>
+      </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
@@ -1248,15 +1395,26 @@
         <v>42</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="G14" s="3">
+        <f>1000+42</f>
+        <v>1042</v>
+      </c>
+      <c r="H14" s="3">
+        <v>42</v>
+      </c>
       <c r="I14" s="3">
         <v>43</v>
       </c>
       <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="K14" s="3">
+        <v>41</v>
+      </c>
+      <c r="L14" s="3">
+        <v>41</v>
+      </c>
+      <c r="M14" s="3">
+        <v>38</v>
+      </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
@@ -1302,24 +1460,36 @@
       </c>
       <c r="G15" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>907</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1885</v>
       </c>
       <c r="I15" s="3">
         <f>+I10-SUM(I11:I14)</f>
         <v>1992</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" ref="J15" si="5">+J10-SUM(J11:J14)</f>
+        <f t="shared" ref="J15:N15" si="5">+J10-SUM(J11:J14)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
+      <c r="K15" s="3">
+        <f t="shared" si="5"/>
+        <v>2163</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="5"/>
+        <v>2109</v>
+      </c>
+      <c r="M15" s="3">
+        <f t="shared" si="5"/>
+        <v>2173</v>
+      </c>
+      <c r="N15" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
@@ -1353,15 +1523,25 @@
         <v>27</v>
       </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="G16" s="3">
+        <v>27</v>
+      </c>
+      <c r="H16" s="3">
+        <v>41</v>
+      </c>
       <c r="I16" s="3">
         <v>51</v>
       </c>
       <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
+      <c r="K16" s="3">
+        <v>62</v>
+      </c>
+      <c r="L16" s="3">
+        <v>68</v>
+      </c>
+      <c r="M16" s="3">
+        <v>67</v>
+      </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
@@ -1395,15 +1575,25 @@
         <v>6</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="G17" s="3">
+        <v>18</v>
+      </c>
+      <c r="H17" s="3">
+        <v>4</v>
+      </c>
       <c r="I17" s="3">
         <v>12</v>
       </c>
       <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
+      <c r="K17" s="3">
+        <v>6</v>
+      </c>
+      <c r="L17" s="3">
+        <v>2</v>
+      </c>
+      <c r="M17" s="3">
+        <v>23</v>
+      </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
@@ -1437,15 +1627,25 @@
         <v>67</v>
       </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="G18" s="3">
+        <v>70</v>
+      </c>
+      <c r="H18" s="3">
+        <v>82</v>
+      </c>
       <c r="I18" s="3">
         <v>89</v>
       </c>
       <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
+      <c r="K18" s="3">
+        <v>75</v>
+      </c>
+      <c r="L18" s="3">
+        <v>58</v>
+      </c>
+      <c r="M18" s="3">
+        <v>58</v>
+      </c>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
@@ -1491,24 +1691,36 @@
       </c>
       <c r="G19" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>968</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1930</v>
       </c>
       <c r="I19" s="3">
         <f>+I15-I16+SUM(I17:I18)</f>
         <v>2042</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" ref="J19" si="7">+J15-J16+SUM(J17:J18)</f>
+        <f t="shared" ref="J19:N19" si="7">+J15-J16+SUM(J17:J18)</f>
         <v>0</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
+      <c r="K19" s="3">
+        <f t="shared" si="7"/>
+        <v>2182</v>
+      </c>
+      <c r="L19" s="3">
+        <f t="shared" si="7"/>
+        <v>2101</v>
+      </c>
+      <c r="M19" s="3">
+        <f t="shared" si="7"/>
+        <v>2187</v>
+      </c>
+      <c r="N19" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
@@ -1541,15 +1753,25 @@
         <v>340</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="G20" s="3">
+        <v>348</v>
+      </c>
+      <c r="H20" s="3">
+        <v>357</v>
+      </c>
       <c r="I20" s="3">
         <v>358</v>
       </c>
       <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+      <c r="K20" s="3">
+        <v>371</v>
+      </c>
+      <c r="L20" s="3">
+        <v>410</v>
+      </c>
+      <c r="M20" s="3">
+        <v>415</v>
+      </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
@@ -1595,24 +1817,36 @@
       </c>
       <c r="G21" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>620</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1573</v>
       </c>
       <c r="I21" s="3">
         <f>+I19-I20</f>
         <v>1684</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" ref="J21" si="9">+J19-J20</f>
+        <f t="shared" ref="J21:N21" si="9">+J19-J20</f>
         <v>0</v>
       </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
+      <c r="K21" s="3">
+        <f t="shared" si="9"/>
+        <v>1811</v>
+      </c>
+      <c r="L21" s="3">
+        <f t="shared" si="9"/>
+        <v>1691</v>
+      </c>
+      <c r="M21" s="3">
+        <f t="shared" si="9"/>
+        <v>1772</v>
+      </c>
+      <c r="N21" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
@@ -1690,26 +1924,38 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G23" s="7" t="e">
+      <c r="G23" s="7">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H23" s="7" t="e">
+        <v>1.3596491228070176</v>
+      </c>
+      <c r="H23" s="7">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>3.4878048780487805</v>
       </c>
       <c r="I23" s="7">
         <f>+I21/I24</f>
         <v>3.7842696629213481</v>
       </c>
       <c r="J23" s="7" t="e">
-        <f t="shared" ref="J23" si="11">+J21/J24</f>
+        <f t="shared" ref="J23:N23" si="11">+J21/J24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
+      <c r="K23" s="7">
+        <f t="shared" si="11"/>
+        <v>4.1536697247706424</v>
+      </c>
+      <c r="L23" s="7">
+        <f t="shared" si="11"/>
+        <v>3.9417249417249418</v>
+      </c>
+      <c r="M23" s="7">
+        <f t="shared" si="11"/>
+        <v>4.1792452830188678</v>
+      </c>
+      <c r="N23" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
@@ -1742,15 +1988,25 @@
         <v>456</v>
       </c>
       <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="G24" s="3">
+        <v>456</v>
+      </c>
+      <c r="H24" s="3">
+        <v>451</v>
+      </c>
       <c r="I24" s="3">
         <v>445</v>
       </c>
       <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
+      <c r="K24" s="3">
+        <v>436</v>
+      </c>
+      <c r="L24" s="3">
+        <v>429</v>
+      </c>
+      <c r="M24" s="3">
+        <v>424</v>
+      </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
@@ -1830,13 +2086,25 @@
         <v>0.11854890952278119</v>
       </c>
       <c r="J26" s="8" t="e">
-        <f t="shared" ref="J26:J29" si="13">+J3/F3-1</f>
+        <f t="shared" ref="J26:N29" si="13">+J3/F3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
+      <c r="K26" s="8">
+        <f t="shared" si="13"/>
+        <v>0.11533767290480057</v>
+      </c>
+      <c r="L26" s="8">
+        <f t="shared" si="13"/>
+        <v>0.11482213438735167</v>
+      </c>
+      <c r="M26" s="8">
+        <f t="shared" si="13"/>
+        <v>0.11795366795366791</v>
+      </c>
+      <c r="N26" s="8" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
@@ -1883,10 +2151,22 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
+      <c r="K27" s="8">
+        <f t="shared" si="13"/>
+        <v>-0.20168067226890751</v>
+      </c>
+      <c r="L27" s="8">
+        <f t="shared" si="13"/>
+        <v>-0.15384615384615385</v>
+      </c>
+      <c r="M27" s="8">
+        <f t="shared" si="13"/>
+        <v>-0.17073170731707321</v>
+      </c>
+      <c r="N27" s="8" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
@@ -1933,10 +2213,22 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
+      <c r="K28" s="8">
+        <f t="shared" si="13"/>
+        <v>-7.4829931972789088E-2</v>
+      </c>
+      <c r="L28" s="8">
+        <f t="shared" si="13"/>
+        <v>-6.8965517241379448E-3</v>
+      </c>
+      <c r="M28" s="8">
+        <f t="shared" si="13"/>
+        <v>-0.11643835616438358</v>
+      </c>
+      <c r="N28" s="8" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
@@ -1960,33 +2252,45 @@
       <c r="AI28" s="3"/>
     </row>
     <row r="29" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="8" t="e">
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="10" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="8" t="e">
+      <c r="H29" s="10" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="10">
         <f t="shared" si="14"/>
         <v>0.10593047034764824</v>
       </c>
-      <c r="J29" s="8" t="e">
+      <c r="J29" s="10" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
+      <c r="K29" s="10">
+        <f t="shared" si="13"/>
+        <v>0.10266306445387885</v>
+      </c>
+      <c r="L29" s="10">
+        <f t="shared" si="13"/>
+        <v>0.10623469579958567</v>
+      </c>
+      <c r="M29" s="10">
+        <f t="shared" si="13"/>
+        <v>0.10724852071005908</v>
+      </c>
+      <c r="N29" s="10" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
@@ -2029,26 +2333,38 @@
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G30" s="8" t="e">
+      <c r="G30" s="8">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H30" s="8" t="e">
+        <v>0.88614434581242763</v>
+      </c>
+      <c r="H30" s="8">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>0.88736108495008481</v>
       </c>
       <c r="I30" s="8">
         <f>+I10/I6</f>
         <v>0.8975591715976331</v>
       </c>
       <c r="J30" s="8" t="e">
-        <f t="shared" ref="J30" si="16">+J10/J6</f>
+        <f t="shared" ref="J30:N30" si="16">+J10/J6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
+      <c r="K30" s="8">
+        <f t="shared" si="16"/>
+        <v>0.89114455722786134</v>
+      </c>
+      <c r="L30" s="8">
+        <f t="shared" si="16"/>
+        <v>0.89136727396560533</v>
+      </c>
+      <c r="M30" s="8">
+        <f t="shared" si="16"/>
+        <v>0.89278557114228452</v>
+      </c>
+      <c r="N30" s="8" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
@@ -2091,26 +2407,38 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G31" s="8" t="e">
+      <c r="G31" s="8">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H31" s="8" t="e">
+        <v>0.17502894635275956</v>
+      </c>
+      <c r="H31" s="8">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>0.35505744961386326</v>
       </c>
       <c r="I31" s="8">
         <f>+I15/I6</f>
         <v>0.36834319526627218</v>
       </c>
       <c r="J31" s="8" t="e">
-        <f t="shared" ref="J31" si="18">+J15/J6</f>
+        <f t="shared" ref="J31:N31" si="18">+J15/J6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
+      <c r="K31" s="8">
+        <f t="shared" si="18"/>
+        <v>0.37854392719635982</v>
+      </c>
+      <c r="L31" s="8">
+        <f t="shared" si="18"/>
+        <v>0.35910097054316364</v>
+      </c>
+      <c r="M31" s="8">
+        <f t="shared" si="18"/>
+        <v>0.36289245156980626</v>
+      </c>
+      <c r="N31" s="8" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
@@ -2153,26 +2481,38 @@
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G32" s="8" t="e">
+      <c r="G32" s="8">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H32" s="8" t="e">
+        <v>0.35950413223140498</v>
+      </c>
+      <c r="H32" s="8">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
+        <v>0.18497409326424871</v>
       </c>
       <c r="I32" s="8">
         <f>+I20/I19</f>
         <v>0.17531831537708129</v>
       </c>
       <c r="J32" s="8" t="e">
-        <f t="shared" ref="J32" si="20">+J20/J19</f>
+        <f t="shared" ref="J32:N32" si="20">+J20/J19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
+      <c r="K32" s="8">
+        <f t="shared" si="20"/>
+        <v>0.17002749770852429</v>
+      </c>
+      <c r="L32" s="8">
+        <f t="shared" si="20"/>
+        <v>0.1951451689671585</v>
+      </c>
+      <c r="M32" s="8">
+        <f t="shared" si="20"/>
+        <v>0.18975765889346136</v>
+      </c>
+      <c r="N32" s="8" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
